--- a/server_root/public_html/app/storage/excel/Visit Log - Fall Semester 2015.xlsx
+++ b/server_root/public_html/app/storage/excel/Visit Log - Fall Semester 2015.xlsx
@@ -7,17 +7,56 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="20 Oct-24 Oct, 2014" sheetId="1" r:id="rId4"/>
+    <sheet name="01 Sep-05 Sep, 2014" sheetId="1" r:id="rId4"/>
+    <sheet name="08 Sep-12 Sep, 2014" sheetId="2" r:id="rId5"/>
+    <sheet name="15 Sep-19 Sep, 2014" sheetId="3" r:id="rId6"/>
+    <sheet name="22 Sep-26 Sep, 2014" sheetId="4" r:id="rId7"/>
+    <sheet name="29 Sep-03 Oct, 2014" sheetId="5" r:id="rId8"/>
+    <sheet name="06 Oct-10 Oct, 2014" sheetId="6" r:id="rId9"/>
+    <sheet name="13 Oct-17 Oct, 2014" sheetId="7" r:id="rId10"/>
+    <sheet name="20 Oct-24 Oct, 2014" sheetId="8" r:id="rId11"/>
+    <sheet name="27 Oct-31 Oct, 2014" sheetId="9" r:id="rId12"/>
+    <sheet name="03 Nov-07 Nov, 2014" sheetId="10" r:id="rId13"/>
+    <sheet name="10 Nov-14 Nov, 2014" sheetId="11" r:id="rId14"/>
+    <sheet name="17 Nov-21 Nov, 2014" sheetId="12" r:id="rId15"/>
+    <sheet name="24 Nov-28 Nov, 2014" sheetId="13" r:id="rId16"/>
+    <sheet name="01 Dec-05 Dec, 2014" sheetId="14" r:id="rId17"/>
+    <sheet name="08 Dec-12 Dec, 2014" sheetId="15" r:id="rId18"/>
+    <sheet name="15 Dec-19 Dec, 2014" sheetId="16" r:id="rId19"/>
+    <sheet name="22 Dec-26 Dec, 2014" sheetId="17" r:id="rId20"/>
+    <sheet name="30 Dec-03 Jan, 2014" sheetId="18" r:id="rId21"/>
+    <sheet name="05 Jan-09 Jan, 2015" sheetId="19" r:id="rId22"/>
+    <sheet name="12 Jan-16 Jan, 2015" sheetId="20" r:id="rId23"/>
+    <sheet name="Worksheet" sheetId="21" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20 Oct-24 Oct, 2014'!$A$1:$R$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 Sep-05 Sep, 2014'!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'08 Sep-12 Sep, 2014'!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'15 Sep-19 Sep, 2014'!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'22 Sep-26 Sep, 2014'!$A$1:$R$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'29 Sep-03 Oct, 2014'!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'06 Oct-10 Oct, 2014'!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'13 Oct-17 Oct, 2014'!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'20 Oct-24 Oct, 2014'!$A$1:$R$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'27 Oct-31 Oct, 2014'!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'03 Nov-07 Nov, 2014'!$A$1:$R$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'10 Nov-14 Nov, 2014'!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'17 Nov-21 Nov, 2014'!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'24 Nov-28 Nov, 2014'!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'01 Dec-05 Dec, 2014'!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'08 Dec-12 Dec, 2014'!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'15 Dec-19 Dec, 2014'!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'22 Dec-26 Dec, 2014'!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'30 Dec-03 Jan, 2014'!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'05 Jan-09 Jan, 2015'!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'12 Jan-16 Jan, 2015'!$A$1:$R$1</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Day</t>
   </si>
@@ -73,58 +112,67 @@
     <t>Purpose</t>
   </si>
   <si>
-    <t>Friday</t>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>22:00</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>Potter</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>6983827751</t>
+  </si>
+  <si>
+    <t>emai@email.com</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Saturday</t>
   </si>
   <si>
     <t>Oct</t>
   </si>
   <si>
-    <t>22:00</t>
-  </si>
-  <si>
-    <t>last name</t>
-  </si>
-  <si>
-    <t>Potter</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>UN</t>
-  </si>
-  <si>
-    <t>6983827751</t>
-  </si>
-  <si>
-    <t>emai@email.com</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>complete</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Saturday</t>
+    <t>02:00</t>
+  </si>
+  <si>
+    <t>no show by tutor</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Nov</t>
   </si>
   <si>
     <t>00:00</t>
   </si>
   <si>
     <t>pending</t>
-  </si>
-  <si>
-    <t>02:00</t>
-  </si>
-  <si>
-    <t>no show by tutor</t>
   </si>
 </sst>
 </file>
@@ -184,20 +232,20 @@
     <fill>
       <gradientFill type="linear" degree="90">
         <stop position="0">
-          <color rgb="888888"/>
+          <color rgb="e5412d"/>
         </stop>
         <stop position="1">
-          <color rgb="888888"/>
+          <color rgb="e5412d"/>
         </stop>
       </gradientFill>
     </fill>
     <fill>
       <gradientFill type="linear" degree="90">
         <stop position="0">
-          <color rgb="e5412d"/>
+          <color rgb="888888"/>
         </stop>
         <stop position="1">
-          <color rgb="e5412d"/>
+          <color rgb="888888"/>
         </stop>
       </gradientFill>
     </fill>
@@ -561,10 +609,2054 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="15.13916" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22.851563" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="17.709961" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="20.280762" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" customHeight="1" ht="24">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <autoFilter ref="A1:R1"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr filterMode="1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="12.568359" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="12.568359" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="18.995361" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="15.13916" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22.851563" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="17.709961" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="20.280762" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" customHeight="1" ht="24">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="7">
+        <v>2014</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1223344</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="8"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <autoFilter ref="A1:R2"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr filterMode="1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="15.13916" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22.851563" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="17.709961" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="20.280762" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" customHeight="1" ht="24">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <autoFilter ref="A1:R1"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr filterMode="1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="15.13916" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22.851563" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="17.709961" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="20.280762" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" customHeight="1" ht="24">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <autoFilter ref="A1:R1"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr filterMode="1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="15.13916" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22.851563" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="17.709961" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="20.280762" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" customHeight="1" ht="24">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <autoFilter ref="A1:R1"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr filterMode="1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="15.13916" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22.851563" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="17.709961" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="20.280762" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" customHeight="1" ht="24">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <autoFilter ref="A1:R1"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr filterMode="1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="15.13916" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22.851563" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="17.709961" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="20.280762" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" customHeight="1" ht="24">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <autoFilter ref="A1:R1"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr filterMode="1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="15.13916" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22.851563" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="17.709961" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="20.280762" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" customHeight="1" ht="24">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <autoFilter ref="A1:R1"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr filterMode="1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="15.13916" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22.851563" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="17.709961" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="20.280762" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" customHeight="1" ht="24">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <autoFilter ref="A1:R1"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr filterMode="1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="15.13916" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22.851563" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="17.709961" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="20.280762" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" customHeight="1" ht="24">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <autoFilter ref="A1:R1"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr filterMode="1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="15.13916" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22.851563" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="17.709961" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="20.280762" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" customHeight="1" ht="24">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <autoFilter ref="A1:R1"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr filterMode="1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="15.13916" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22.851563" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="17.709961" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="20.280762" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" customHeight="1" ht="24">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <autoFilter ref="A1:R1"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr filterMode="1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="15.13916" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22.851563" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="17.709961" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="20.280762" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" customHeight="1" ht="24">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <autoFilter ref="A1:R1"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr filterMode="1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="15.13916" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22.851563" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="17.709961" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="20.280762" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" customHeight="1" ht="24">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <autoFilter ref="A1:R1"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr filterMode="1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="12.568359" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="18.995361" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="15.13916" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22.851563" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="17.709961" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="20.280762" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" customHeight="1" ht="24">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2014</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1223344</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="4"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <autoFilter ref="A1:R2"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr filterMode="1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="15.13916" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22.851563" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="17.709961" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="20.280762" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" customHeight="1" ht="24">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <autoFilter ref="A1:R1"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr filterMode="1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="15.13916" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22.851563" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="17.709961" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="20.280762" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" customHeight="1" ht="24">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <autoFilter ref="A1:R1"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr filterMode="1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="15.13916" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22.851563" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="17.709961" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="20.280762" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" customHeight="1" ht="24">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <autoFilter ref="A1:R1"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr filterMode="1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -646,170 +2738,168 @@
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="5">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2014</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1223344</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2014</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="K2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1223344</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="P2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="5">
-        <v>25</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2014</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="5">
-        <v>1223344</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="6"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="7">
-        <v>25</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="7">
-        <v>2014</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1223344</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="8"/>
+      <c r="R2" s="6"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <autoFilter ref="A1:R4"/>
+  <autoFilter ref="A1:R2"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr filterMode="1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13.85376" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="15.13916" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22.851563" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="17.709961" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="20.280762" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="9.997559" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" customHeight="1" ht="24">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <autoFilter ref="A1:R1"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
